--- a/public/storage/plantilla_comunidades_fincatech.xlsx
+++ b/public/storage/plantilla_comunidades_fincatech.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarr.rodrigo/Proyectos/Proyectos Web/fincatech/public/storage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37D7257-BAE6-374C-8851-C00D28B552B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="168">
   <si>
     <t>codigo</t>
   </si>
@@ -28,15 +37,6 @@
     <t>codpostal</t>
   </si>
   <si>
-    <t>presidente</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>emailcontacto</t>
-  </si>
-  <si>
     <t>cif</t>
   </si>
   <si>
@@ -85,52 +85,710 @@
     <t>certificadosdigitales.preciocomunidad</t>
   </si>
   <si>
-    <t>Nombre de ejemplo</t>
-  </si>
-  <si>
-    <t>Avenida del Carmen, 9</t>
-  </si>
-  <si>
-    <t>Estepona</t>
-  </si>
-  <si>
-    <t>Presidente nombre</t>
+    <t>provincia</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <b/>
         <sz val="12"/>
-        <color indexed="17"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
-      <t>ejemplo@fincatech.es</t>
+      <t>000301</t>
     </r>
   </si>
   <si>
-    <t>1R</t>
+    <t>CDAD DE PROPIETARIOS SAN LORENZO</t>
+  </si>
+  <si>
+    <t>CL BATALLA DEL SALADO 22</t>
+  </si>
+  <si>
+    <t>H11451119</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>11380</t>
+    </r>
+  </si>
+  <si>
+    <t>TARIFA</t>
+  </si>
+  <si>
+    <t>CADIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES22 3058 0765 6727 2002 1170</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000302</t>
+    </r>
+  </si>
+  <si>
+    <t>COMUNIDAD PROPIETARIOS ENTRE DOS</t>
+  </si>
+  <si>
+    <t>AL VIZCONDE DE CASTELL NOU 2</t>
+  </si>
+  <si>
+    <t>H11794716</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES64 3058 0765 6227 2001 4257</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000303</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD.PROP. PUNTA EUROPA 4</t>
+  </si>
+  <si>
+    <t>L G BARRIADA PUNTA EUROPA 4</t>
+  </si>
+  <si>
+    <t>H72109853</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES50 3058 0765 6427 2000 7136</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000304</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD. PROP. MENENDEZ ARANGO</t>
+  </si>
+  <si>
+    <t>AL MENENDEZ ARANGO 2</t>
+  </si>
+  <si>
+    <t>H72085194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES52 2103 4013 7733 1301 2392</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000305</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP MIRADOR DE TARIFA</t>
+  </si>
+  <si>
+    <t>AL ALGECIRAS 4</t>
+  </si>
+  <si>
+    <t>H72104300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES97 3058 0765 6227 2001 9580</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000306</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD. PROP. EDIFICIO ALOYA</t>
+  </si>
+  <si>
+    <t>AL SANCHO IV EL BRAVO 26</t>
+  </si>
+  <si>
+    <t>H11456027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES48 3058 0765 6827 2000 1350</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000307</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD.PROP. EDIF.ATLANTICO</t>
+  </si>
+  <si>
+    <t>AL NUMANCIA 11</t>
+  </si>
+  <si>
+    <t>H11368024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES79 3058 0765 6127 2000 5888</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000308</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD. PROP. EDIFICIO LA CALZADA</t>
+  </si>
+  <si>
+    <t>AL JUSTIÑO PERTIÑEZ 1</t>
+  </si>
+  <si>
+    <t>H11246816</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES10 2103 4013 7233 1301 8049</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000309</t>
+    </r>
+  </si>
+  <si>
+    <t>COMUNIDAD DE PROPIETARIOS EDIF. BRAILLE</t>
+  </si>
+  <si>
+    <t>AL BRAILLE 1</t>
+  </si>
+  <si>
+    <t>H72131857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES95 3058 0765 6227 2000 8849</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000310</t>
+    </r>
+  </si>
+  <si>
+    <t>COMUNIDAD DE PROPIETARIOS EDIF. LA LUZ</t>
+  </si>
+  <si>
+    <t>AL NAVAS DE TOLOSA 10</t>
+  </si>
+  <si>
+    <t>H11341013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES92 2103 4013 7100 3000 0406</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000311</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD.PROP. EDIF. LAS DELICIAS</t>
+  </si>
+  <si>
+    <t>AL NAVAS DE TOLOSA 2</t>
+  </si>
+  <si>
+    <t>H72125214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES08 3058 0765 6827 2000 8375</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000312</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD. PROP. EDIF. DON MIGUEL</t>
+  </si>
+  <si>
+    <t>AL SAN JOSE N° 23</t>
+  </si>
+  <si>
+    <t>H11496742</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES15 3058 0765 6528 1000 5578</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000313</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD.PROP.EDIF. DIEGO PIÑERO</t>
+  </si>
+  <si>
+    <t>AL SAN JOSE 25</t>
+  </si>
+  <si>
+    <t>H11601234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES71 0049 0448 0121 9117 2895</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000314</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD.PROP.EDIF. LUZ DIAZ</t>
+  </si>
+  <si>
+    <t>AL NUMANCIA 10</t>
+  </si>
+  <si>
+    <t>H72006190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES50 3058 0765 6127 2000 5246</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000316</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP EDIF. EL MIRADOR</t>
+  </si>
+  <si>
+    <t>AV ANDALUCIA 25</t>
+  </si>
+  <si>
+    <t>H11580511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES72 3058 0765 6127 2001 4356</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000317</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD. PROP.EDIF.STA. CATALINA</t>
+  </si>
+  <si>
+    <t>AL ALCALDE JUAN NUÑEZ 10</t>
+  </si>
+  <si>
+    <t>H11361607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES80 3058 0765 6327 2001 5472</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000319</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP C/ GAUCIN CLOQ D-4 Y D-5</t>
+  </si>
+  <si>
+    <t>GAUCIN 1 Y 3</t>
+  </si>
+  <si>
+    <t>H11404134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES94 2103 4013 7400 3000 1290</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000320</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP EDF LAS PALMERAS</t>
+  </si>
+  <si>
+    <t>AV ANDALUCIA- ED LAS PALMERAS 24</t>
+  </si>
+  <si>
+    <t>H11532181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES39 2100 8582 6122 0003 0343</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000321</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP PLAYA CHICA</t>
+  </si>
+  <si>
+    <t>AL PADRE FONT10</t>
+  </si>
+  <si>
+    <t>H11535077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES05 3058 0765 6927 2001 9535</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000322</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD DE PROP VISTA AZUL II FASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL MAR ADRIATICO-TINGINTERA NUMERO 2 </t>
+  </si>
+  <si>
+    <t>H11500279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES86 3058 0765 6927 2002 3121</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000323</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP EDIF ANDALUCIA PLAZA</t>
+  </si>
+  <si>
+    <t>AL ANDALUCIA PLAZA</t>
+  </si>
+  <si>
+    <t>H11292778</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES62 2100 4796 1902 0003 3757</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000324</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP C/BATALLA DEL SALADO N°57</t>
+  </si>
+  <si>
+    <t>AL BATALLA DEL SALADO 57</t>
+  </si>
+  <si>
+    <t>H11473188</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES70 3058 0765 6127 2002 3510</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000325</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DAD PROP EDIFICIO TRAFALGAR</t>
+    </r>
+  </si>
+  <si>
+    <t>AL TRAFALGAR 8</t>
+  </si>
+  <si>
+    <t>H11264967</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES63 3058 0765 6427 2001 1364</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000326</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD. DE PROP. EDIF. PUERTA JEREZ</t>
+  </si>
+  <si>
+    <t>AL AMADOR DE LOS RIOS</t>
+  </si>
+  <si>
+    <t>H11470440</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES05 2100 4796 1402 0000 0690</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000328</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP EDIF ANDRES GALLURT 2</t>
+  </si>
+  <si>
+    <t>GRUPO ANDRES GALLURT N° 2</t>
+  </si>
+  <si>
+    <t>H11487196</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES05 3058 0765 6628 1000 5806</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000329</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP CARDENAL CISNEROS 1</t>
+  </si>
+  <si>
+    <t>BO CARDENAL CISNEROS 1</t>
+  </si>
+  <si>
+    <t>H11466018</t>
+  </si>
+  <si>
+    <t>ES45 3058 0765 6827 2002 4490</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000330</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP EDIF VISTA MAR PORTAL 2</t>
+  </si>
+  <si>
+    <t>AL TRAVESIA DE TARIFA 2</t>
+  </si>
+  <si>
+    <t>H11342557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES38 3058 0765 6827 2001 4431</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>000331</t>
+    </r>
+  </si>
+  <si>
+    <t>CDAD PROP EDIFICIO ALMADRABA</t>
+  </si>
+  <si>
+    <t>AL ALMADRABA 3</t>
+  </si>
+  <si>
+    <t>H11793148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES72 3058 0765 6427 2002 5073</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>CDAD PROP EDIFICIO TRAFALGAR</t>
+    </r>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t>ibancomunidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -140,10 +798,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="12"/>
-      <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -196,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -294,76 +974,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,31 +1099,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffe2eeda"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE2EEDA"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Tema de Office">
       <a:dk1>
@@ -598,7 +1379,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -617,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -751,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -777,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -855,7 +1636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,9 +1649,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -887,7 +1674,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -906,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,9 +1940,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1169,7 +1962,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1188,7 +1981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +2011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +2037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +2063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +2089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +2115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +2141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +2167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +2193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +2219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,413 +2232,2662 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.8516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.6719" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1719" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1719" style="1" customWidth="1"/>
-    <col min="22" max="22" width="33.4219" style="1" customWidth="1"/>
-    <col min="23" max="23" width="30.3125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
+    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="4">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="5">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="5">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="6">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="6">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="6">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="7">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="7">
+      <c r="V1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="7">
+      <c r="W1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s" s="8">
+    </row>
+    <row r="2" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="9">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" s="10">
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="M2" s="10">
+        <v>35</v>
+      </c>
+      <c r="N2" s="10">
+        <v>80</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>35</v>
+      </c>
+      <c r="N3" s="10">
+        <v>80</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>35</v>
+      </c>
+      <c r="N4" s="10">
+        <v>80</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>35</v>
+      </c>
+      <c r="N5" s="10">
+        <v>80</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>35</v>
+      </c>
+      <c r="N6" s="10">
+        <v>80</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>35</v>
+      </c>
+      <c r="N7" s="10">
+        <v>80</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10">
+        <v>35</v>
+      </c>
+      <c r="N8" s="10">
+        <v>80</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>35</v>
+      </c>
+      <c r="N9" s="10">
+        <v>80</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>35</v>
+      </c>
+      <c r="N10" s="10">
+        <v>80</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>35</v>
+      </c>
+      <c r="N11" s="10">
+        <v>80</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>35</v>
+      </c>
+      <c r="N12" s="10">
+        <v>80</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10">
+        <v>35</v>
+      </c>
+      <c r="N13" s="10">
+        <v>80</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10">
+        <v>35</v>
+      </c>
+      <c r="N14" s="10">
+        <v>80</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>35</v>
+      </c>
+      <c r="N15" s="10">
+        <v>80</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>35</v>
+      </c>
+      <c r="N16" s="10">
+        <v>80</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>35</v>
+      </c>
+      <c r="N17" s="10">
+        <v>80</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>35</v>
+      </c>
+      <c r="N18" s="10">
+        <v>80</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>35</v>
+      </c>
+      <c r="N19" s="10">
+        <v>80</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="10">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <v>35</v>
+      </c>
+      <c r="N20" s="10">
+        <v>80</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>35</v>
+      </c>
+      <c r="N21" s="10">
+        <v>80</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10">
+        <v>35</v>
+      </c>
+      <c r="N22" s="10">
+        <v>80</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
+        <v>35</v>
+      </c>
+      <c r="N23" s="10">
+        <v>80</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10">
+        <v>35</v>
+      </c>
+      <c r="N24" s="10">
+        <v>80</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="10">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
+        <v>35</v>
+      </c>
+      <c r="N25" s="10">
+        <v>80</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10">
+        <v>35</v>
+      </c>
+      <c r="N26" s="10">
+        <v>80</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
+        <v>35</v>
+      </c>
+      <c r="N27" s="10">
+        <v>80</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10">
+        <v>35</v>
+      </c>
+      <c r="N28" s="10">
+        <v>80</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="11">
+        <v>11380</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="10">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10">
+        <v>35</v>
+      </c>
+      <c r="N29" s="10">
+        <v>80</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="10">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+    </row>
+    <row r="33" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+    </row>
+    <row r="37" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+    </row>
+    <row r="39" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="17"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+    </row>
+    <row r="43" spans="1:23" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D44" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="E44" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10">
-        <v>29680</v>
-      </c>
-      <c r="F2" t="s" s="12">
+      <c r="F44" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10">
-        <v>123456789</v>
-      </c>
-      <c r="H2" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s" s="12">
+      <c r="G44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10">
-        <v>30</v>
-      </c>
-      <c r="O2" s="10">
-        <v>120</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
-      <c r="X2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="20"/>
+    </row>
+    <row r="45" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="21"/>
+      <c r="I60" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="21"/>
+      <c r="I61" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="30">
+        <v>11380</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="21"/>
+      <c r="I63" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="21"/>
+      <c r="I67" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="21"/>
+      <c r="I68" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="21"/>
+      <c r="I69" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="21"/>
+      <c r="I70" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="35"/>
+      <c r="I71" s="36" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="" tooltip="" display="ejemplo@fincatech.es"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
